--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf17-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf17-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Fgfr4</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09983000000000002</v>
+        <v>0.1816793333333333</v>
       </c>
       <c r="H2">
-        <v>0.29949</v>
+        <v>0.545038</v>
       </c>
       <c r="I2">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589303</v>
       </c>
       <c r="J2">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589304</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8372556666666666</v>
+        <v>0.903185</v>
       </c>
       <c r="N2">
-        <v>2.511767</v>
+        <v>2.709555</v>
       </c>
       <c r="O2">
-        <v>0.04323017762831462</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="P2">
-        <v>0.04323017762831462</v>
+        <v>0.03154869388788046</v>
       </c>
       <c r="Q2">
-        <v>0.08358323320333334</v>
+        <v>0.1640900486766667</v>
       </c>
       <c r="R2">
-        <v>0.75224909883</v>
+        <v>1.47681043809</v>
       </c>
       <c r="S2">
-        <v>0.01399647563769387</v>
+        <v>0.0111832175479874</v>
       </c>
       <c r="T2">
-        <v>0.01399647563769387</v>
+        <v>0.0111832175479874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09983000000000002</v>
+        <v>0.1816793333333333</v>
       </c>
       <c r="H3">
-        <v>0.29949</v>
+        <v>0.545038</v>
       </c>
       <c r="I3">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589303</v>
       </c>
       <c r="J3">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589304</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +626,22 @@
         <v>0.331116</v>
       </c>
       <c r="O3">
-        <v>0.00569885801333365</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="P3">
-        <v>0.00569885801333365</v>
+        <v>0.003855347953955326</v>
       </c>
       <c r="Q3">
-        <v>0.01101843676</v>
+        <v>0.02005231137866666</v>
       </c>
       <c r="R3">
-        <v>0.09916593084</v>
+        <v>0.180470802408</v>
       </c>
       <c r="S3">
-        <v>0.001845098302211409</v>
+        <v>0.001366623767230927</v>
       </c>
       <c r="T3">
-        <v>0.001845098302211409</v>
+        <v>0.001366623767230927</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09983000000000002</v>
+        <v>0.1816793333333333</v>
       </c>
       <c r="H4">
-        <v>0.29949</v>
+        <v>0.545038</v>
       </c>
       <c r="I4">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589303</v>
       </c>
       <c r="J4">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589304</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>18.40564566666667</v>
+        <v>0.03076233333333333</v>
       </c>
       <c r="N4">
-        <v>55.216937</v>
+        <v>0.09228699999999999</v>
       </c>
       <c r="O4">
-        <v>0.9503421275147966</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="P4">
-        <v>0.9503421275147965</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="Q4">
-        <v>1.837435606903334</v>
+        <v>0.005588880211777778</v>
       </c>
       <c r="R4">
-        <v>16.53692046213</v>
+        <v>0.050299921906</v>
       </c>
       <c r="S4">
-        <v>0.3076887758731512</v>
+        <v>0.0003808985600407125</v>
       </c>
       <c r="T4">
-        <v>0.3076887758731511</v>
+        <v>0.0003808985600407127</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,51 +726,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09983000000000002</v>
+        <v>0.1816793333333333</v>
       </c>
       <c r="H5">
-        <v>0.29949</v>
+        <v>0.545038</v>
       </c>
       <c r="I5">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589303</v>
       </c>
       <c r="J5">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589304</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01411566666666667</v>
+        <v>27.52907633333334</v>
       </c>
       <c r="N5">
-        <v>0.042347</v>
+        <v>82.58722900000001</v>
       </c>
       <c r="O5">
-        <v>0.0007288368435552499</v>
+        <v>0.9616041035407232</v>
       </c>
       <c r="P5">
-        <v>0.0007288368435552499</v>
+        <v>0.9616041035407231</v>
       </c>
       <c r="Q5">
-        <v>0.001409167003333334</v>
+        <v>5.001464235522445</v>
       </c>
       <c r="R5">
-        <v>0.01268250303</v>
+        <v>45.013178119702</v>
       </c>
       <c r="S5">
-        <v>0.0002359728246407499</v>
+        <v>0.3408644403204415</v>
       </c>
       <c r="T5">
-        <v>0.0002359728246407498</v>
+        <v>0.3408644403204416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.07524966666666666</v>
+        <v>0.1816793333333333</v>
       </c>
       <c r="H6">
-        <v>0.225749</v>
+        <v>0.545038</v>
       </c>
       <c r="I6">
-        <v>0.2440479600959548</v>
+        <v>0.3544748187589303</v>
       </c>
       <c r="J6">
-        <v>0.2440479600959548</v>
+        <v>0.3544748187589304</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.8372556666666666</v>
+        <v>0.05488933333333334</v>
       </c>
       <c r="N6">
-        <v>2.511767</v>
+        <v>0.164668</v>
       </c>
       <c r="O6">
-        <v>0.04323017762831462</v>
+        <v>0.001917311265181737</v>
       </c>
       <c r="P6">
-        <v>0.04323017762831462</v>
+        <v>0.001917311265181736</v>
       </c>
       <c r="Q6">
-        <v>0.06300320983144443</v>
+        <v>0.009972257487111112</v>
       </c>
       <c r="R6">
-        <v>0.5670288884829999</v>
+        <v>0.08975031738400001</v>
       </c>
       <c r="S6">
-        <v>0.01055023666477596</v>
+        <v>0.0006796385632297515</v>
       </c>
       <c r="T6">
-        <v>0.01055023666477596</v>
+        <v>0.0006796385632297516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,46 +850,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.07524966666666666</v>
+        <v>0.07524966666666667</v>
       </c>
       <c r="H7">
         <v>0.225749</v>
       </c>
       <c r="I7">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="J7">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.110372</v>
+        <v>0.903185</v>
       </c>
       <c r="N7">
-        <v>0.331116</v>
+        <v>2.709555</v>
       </c>
       <c r="O7">
-        <v>0.00569885801333365</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="P7">
-        <v>0.00569885801333365</v>
+        <v>0.03154869388788046</v>
       </c>
       <c r="Q7">
-        <v>0.008305456209333331</v>
+        <v>0.06796437018833335</v>
       </c>
       <c r="R7">
-        <v>0.07474910588399998</v>
+        <v>0.611679331695</v>
       </c>
       <c r="S7">
-        <v>0.001390794673030563</v>
+        <v>0.004631970941917092</v>
       </c>
       <c r="T7">
-        <v>0.001390794673030563</v>
+        <v>0.004631970941917091</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,46 +912,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.07524966666666666</v>
+        <v>0.07524966666666667</v>
       </c>
       <c r="H8">
         <v>0.225749</v>
       </c>
       <c r="I8">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="J8">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>18.40564566666667</v>
+        <v>0.110372</v>
       </c>
       <c r="N8">
-        <v>55.216937</v>
+        <v>0.331116</v>
       </c>
       <c r="O8">
-        <v>0.9503421275147966</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="P8">
-        <v>0.9503421275147965</v>
+        <v>0.003855347953955326</v>
       </c>
       <c r="Q8">
-        <v>1.385018701201444</v>
+        <v>0.008305456209333333</v>
       </c>
       <c r="R8">
-        <v>12.465168310813</v>
+        <v>0.07474910588399999</v>
       </c>
       <c r="S8">
-        <v>0.2319290576132358</v>
+        <v>0.0005660411729615451</v>
       </c>
       <c r="T8">
-        <v>0.2319290576132358</v>
+        <v>0.000566041172961545</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.07524966666666666</v>
+        <v>0.07524966666666667</v>
       </c>
       <c r="H9">
         <v>0.225749</v>
       </c>
       <c r="I9">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="J9">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01411566666666667</v>
+        <v>0.03076233333333333</v>
       </c>
       <c r="N9">
-        <v>0.042347</v>
+        <v>0.09228699999999999</v>
       </c>
       <c r="O9">
-        <v>0.0007288368435552499</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="P9">
-        <v>0.0007288368435552499</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="Q9">
-        <v>0.001062199211444444</v>
+        <v>0.002314855329222222</v>
       </c>
       <c r="R9">
-        <v>0.009559792903</v>
+        <v>0.020833697963</v>
       </c>
       <c r="S9">
-        <v>0.0001778711449124333</v>
+        <v>0.0001577641724625271</v>
       </c>
       <c r="T9">
-        <v>0.0001778711449124333</v>
+        <v>0.0001577641724625271</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,25 +1027,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.13326</v>
+        <v>0.07524966666666667</v>
       </c>
       <c r="H10">
-        <v>0.39978</v>
+        <v>0.225749</v>
       </c>
       <c r="I10">
-        <v>0.4321857172663481</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="J10">
-        <v>0.4321857172663481</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8372556666666666</v>
+        <v>27.52907633333334</v>
       </c>
       <c r="N10">
-        <v>2.511767</v>
+        <v>82.58722900000001</v>
       </c>
       <c r="O10">
-        <v>0.04323017762831462</v>
+        <v>0.9616041035407232</v>
       </c>
       <c r="P10">
-        <v>0.04323017762831462</v>
+        <v>0.9616041035407231</v>
       </c>
       <c r="Q10">
-        <v>0.11157269014</v>
+        <v>2.071553817724556</v>
       </c>
       <c r="R10">
-        <v>1.00415421126</v>
+        <v>18.643984359521</v>
       </c>
       <c r="S10">
-        <v>0.01868346532584479</v>
+        <v>0.1411824616593694</v>
       </c>
       <c r="T10">
-        <v>0.01868346532584479</v>
+        <v>0.1411824616593693</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,25 +1089,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.13326</v>
+        <v>0.07524966666666667</v>
       </c>
       <c r="H11">
-        <v>0.39978</v>
+        <v>0.225749</v>
       </c>
       <c r="I11">
-        <v>0.4321857172663481</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="J11">
-        <v>0.4321857172663481</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.110372</v>
+        <v>0.05488933333333334</v>
       </c>
       <c r="N11">
-        <v>0.331116</v>
+        <v>0.164668</v>
       </c>
       <c r="O11">
-        <v>0.00569885801333365</v>
+        <v>0.001917311265181737</v>
       </c>
       <c r="P11">
-        <v>0.00569885801333365</v>
+        <v>0.001917311265181736</v>
       </c>
       <c r="Q11">
-        <v>0.01470817272</v>
+        <v>0.004130404036888889</v>
       </c>
       <c r="R11">
-        <v>0.13237355448</v>
+        <v>0.037173636332</v>
       </c>
       <c r="S11">
-        <v>0.002462965038091679</v>
+        <v>0.0002814991358594322</v>
       </c>
       <c r="T11">
-        <v>0.002462965038091679</v>
+        <v>0.0002814991358594321</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1151,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.13326</v>
+        <v>0.255602</v>
       </c>
       <c r="H12">
-        <v>0.39978</v>
+        <v>0.766806</v>
       </c>
       <c r="I12">
-        <v>0.4321857172663481</v>
+        <v>0.4987054441584996</v>
       </c>
       <c r="J12">
-        <v>0.4321857172663481</v>
+        <v>0.4987054441584997</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.40564566666667</v>
+        <v>0.903185</v>
       </c>
       <c r="N12">
-        <v>55.216937</v>
+        <v>2.709555</v>
       </c>
       <c r="O12">
-        <v>0.9503421275147966</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="P12">
-        <v>0.9503421275147965</v>
+        <v>0.03154869388788046</v>
       </c>
       <c r="Q12">
-        <v>2.452736341540001</v>
+        <v>0.23085589237</v>
       </c>
       <c r="R12">
-        <v>22.07462707386</v>
+        <v>2.07770303133</v>
       </c>
       <c r="S12">
-        <v>0.4107242940284096</v>
+        <v>0.01573350539797597</v>
       </c>
       <c r="T12">
-        <v>0.4107242940284095</v>
+        <v>0.01573350539797597</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1213,241 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.255602</v>
+      </c>
+      <c r="H13">
+        <v>0.766806</v>
+      </c>
+      <c r="I13">
+        <v>0.4987054441584996</v>
+      </c>
+      <c r="J13">
+        <v>0.4987054441584997</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.110372</v>
+      </c>
+      <c r="N13">
+        <v>0.331116</v>
+      </c>
+      <c r="O13">
+        <v>0.003855347953955327</v>
+      </c>
+      <c r="P13">
+        <v>0.003855347953955326</v>
+      </c>
+      <c r="Q13">
+        <v>0.028211303944</v>
+      </c>
+      <c r="R13">
+        <v>0.253901735496</v>
+      </c>
+      <c r="S13">
+        <v>0.001922683013762854</v>
+      </c>
+      <c r="T13">
+        <v>0.001922683013762854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.255602</v>
+      </c>
+      <c r="H14">
+        <v>0.766806</v>
+      </c>
+      <c r="I14">
+        <v>0.4987054441584996</v>
+      </c>
+      <c r="J14">
+        <v>0.4987054441584997</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.03076233333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.09228699999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.001074543352259254</v>
+      </c>
+      <c r="P14">
+        <v>0.001074543352259254</v>
+      </c>
+      <c r="Q14">
+        <v>0.007862913924666667</v>
+      </c>
+      <c r="R14">
+        <v>0.070766225322</v>
+      </c>
+      <c r="S14">
+        <v>0.0005358806197560146</v>
+      </c>
+      <c r="T14">
+        <v>0.0005358806197560146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.255602</v>
+      </c>
+      <c r="H15">
+        <v>0.766806</v>
+      </c>
+      <c r="I15">
+        <v>0.4987054441584996</v>
+      </c>
+      <c r="J15">
+        <v>0.4987054441584997</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>27.52907633333334</v>
+      </c>
+      <c r="N15">
+        <v>82.58722900000001</v>
+      </c>
+      <c r="O15">
+        <v>0.9616041035407232</v>
+      </c>
+      <c r="P15">
+        <v>0.9616041035407231</v>
+      </c>
+      <c r="Q15">
+        <v>7.036486968952667</v>
+      </c>
+      <c r="R15">
+        <v>63.32838272057401</v>
+      </c>
+      <c r="S15">
+        <v>0.4795572015609122</v>
+      </c>
+      <c r="T15">
+        <v>0.4795572015609122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.255602</v>
+      </c>
+      <c r="H16">
+        <v>0.766806</v>
+      </c>
+      <c r="I16">
+        <v>0.4987054441584996</v>
+      </c>
+      <c r="J16">
+        <v>0.4987054441584997</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.13326</v>
-      </c>
-      <c r="H13">
-        <v>0.39978</v>
-      </c>
-      <c r="I13">
-        <v>0.4321857172663481</v>
-      </c>
-      <c r="J13">
-        <v>0.4321857172663481</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.01411566666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.042347</v>
-      </c>
-      <c r="O13">
-        <v>0.0007288368435552499</v>
-      </c>
-      <c r="P13">
-        <v>0.0007288368435552499</v>
-      </c>
-      <c r="Q13">
-        <v>0.00188105374</v>
-      </c>
-      <c r="R13">
-        <v>0.01692948366</v>
-      </c>
-      <c r="S13">
-        <v>0.0003149928740020668</v>
-      </c>
-      <c r="T13">
-        <v>0.0003149928740020668</v>
+      <c r="M16">
+        <v>0.05488933333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.164668</v>
+      </c>
+      <c r="O16">
+        <v>0.001917311265181737</v>
+      </c>
+      <c r="P16">
+        <v>0.001917311265181736</v>
+      </c>
+      <c r="Q16">
+        <v>0.01402982337866667</v>
+      </c>
+      <c r="R16">
+        <v>0.126268410408</v>
+      </c>
+      <c r="S16">
+        <v>0.0009561735660925528</v>
+      </c>
+      <c r="T16">
+        <v>0.0009561735660925528</v>
       </c>
     </row>
   </sheetData>
